--- a/word_list.xlsx
+++ b/word_list.xlsx
@@ -1,19 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25601"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25726"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\College\College\DAB - 103\Fun Proj\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\College\College\DAB - 103\Fun Proj\dash\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FA46DBFF-804C-4E4B-BF18-75468759CAC9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F74FD8DB-B3DA-48F6-9A05-72EC7CCD7DBE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="cognitive_domain" sheetId="1" r:id="rId1"/>
+    <sheet name="psychomotor_domain" sheetId="2" r:id="rId2"/>
+    <sheet name="affective_domain" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -25,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="301" uniqueCount="246">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="505" uniqueCount="342">
   <si>
     <t>Choose  </t>
   </si>
@@ -763,6 +765,294 @@
   </si>
   <si>
     <t>6</t>
+  </si>
+  <si>
+    <t>Discern </t>
+  </si>
+  <si>
+    <t>Isolate </t>
+  </si>
+  <si>
+    <t>Feel </t>
+  </si>
+  <si>
+    <t>Touch </t>
+  </si>
+  <si>
+    <t>Act </t>
+  </si>
+  <si>
+    <t>Copy </t>
+  </si>
+  <si>
+    <t>Execute </t>
+  </si>
+  <si>
+    <t>Follow </t>
+  </si>
+  <si>
+    <t>Implement </t>
+  </si>
+  <si>
+    <t>Proceed </t>
+  </si>
+  <si>
+    <t>Replicate </t>
+  </si>
+  <si>
+    <t>React </t>
+  </si>
+  <si>
+    <t>Re-create </t>
+  </si>
+  <si>
+    <t>Respond </t>
+  </si>
+  <si>
+    <t>Show readiness </t>
+  </si>
+  <si>
+    <t>Calibrate </t>
+  </si>
+  <si>
+    <t>Display </t>
+  </si>
+  <si>
+    <t>Fix </t>
+  </si>
+  <si>
+    <t>Keyboard </t>
+  </si>
+  <si>
+    <t>Mend </t>
+  </si>
+  <si>
+    <t>Print </t>
+  </si>
+  <si>
+    <t>Remove </t>
+  </si>
+  <si>
+    <t>Repair </t>
+  </si>
+  <si>
+    <t>Sketch </t>
+  </si>
+  <si>
+    <t>Thrown </t>
+  </si>
+  <si>
+    <t>Type  </t>
+  </si>
+  <si>
+    <t>Coordinate </t>
+  </si>
+  <si>
+    <t>Record at a high rate of consistency </t>
+  </si>
+  <si>
+    <t>Replace </t>
+  </si>
+  <si>
+    <t>Type </t>
+  </si>
+  <si>
+    <t>Adjust </t>
+  </si>
+  <si>
+    <t>Alter </t>
+  </si>
+  <si>
+    <t>Change </t>
+  </si>
+  <si>
+    <t>Reorganize </t>
+  </si>
+  <si>
+    <t>Vary </t>
+  </si>
+  <si>
+    <t>Initiate </t>
+  </si>
+  <si>
+    <t>Construct</t>
+  </si>
+  <si>
+    <t>Make</t>
+  </si>
+  <si>
+    <t>Accept </t>
+  </si>
+  <si>
+    <t>Acknowledge </t>
+  </si>
+  <si>
+    <t>Ask </t>
+  </si>
+  <si>
+    <t>Attend to </t>
+  </si>
+  <si>
+    <t>Choose </t>
+  </si>
+  <si>
+    <t>Give </t>
+  </si>
+  <si>
+    <t>Hold </t>
+  </si>
+  <si>
+    <t>Listen </t>
+  </si>
+  <si>
+    <t>Name  </t>
+  </si>
+  <si>
+    <t>Point To </t>
+  </si>
+  <si>
+    <t>Sit </t>
+  </si>
+  <si>
+    <t>Erect </t>
+  </si>
+  <si>
+    <t>Reply </t>
+  </si>
+  <si>
+    <t>Tolerate </t>
+  </si>
+  <si>
+    <t>Agree to </t>
+  </si>
+  <si>
+    <t>Answer </t>
+  </si>
+  <si>
+    <t>Assist </t>
+  </si>
+  <si>
+    <t>Aid </t>
+  </si>
+  <si>
+    <t>Care for </t>
+  </si>
+  <si>
+    <t>Communicate </t>
+  </si>
+  <si>
+    <t>Comply </t>
+  </si>
+  <si>
+    <t>Conform </t>
+  </si>
+  <si>
+    <t>Consent </t>
+  </si>
+  <si>
+    <t>Cooperate </t>
+  </si>
+  <si>
+    <t>Greet </t>
+  </si>
+  <si>
+    <t>Help </t>
+  </si>
+  <si>
+    <t>Obey </t>
+  </si>
+  <si>
+    <t>Visit </t>
+  </si>
+  <si>
+    <t>Volunteer </t>
+  </si>
+  <si>
+    <t>Adopt </t>
+  </si>
+  <si>
+    <t>Completes </t>
+  </si>
+  <si>
+    <t>Desire </t>
+  </si>
+  <si>
+    <t>Form </t>
+  </si>
+  <si>
+    <t>Invite </t>
+  </si>
+  <si>
+    <t>Prefer </t>
+  </si>
+  <si>
+    <t>Seek </t>
+  </si>
+  <si>
+    <t>Share </t>
+  </si>
+  <si>
+    <t>Work </t>
+  </si>
+  <si>
+    <t>Adhere </t>
+  </si>
+  <si>
+    <t>Balance </t>
+  </si>
+  <si>
+    <t>Combine </t>
+  </si>
+  <si>
+    <t>Conceptualize </t>
+  </si>
+  <si>
+    <t>Defend </t>
+  </si>
+  <si>
+    <t>Act  </t>
+  </si>
+  <si>
+    <t>Advocate </t>
+  </si>
+  <si>
+    <t>Exemplify </t>
+  </si>
+  <si>
+    <t>Influence </t>
+  </si>
+  <si>
+    <t>Maintain </t>
+  </si>
+  <si>
+    <t>Qualify </t>
+  </si>
+  <si>
+    <t>Serve  </t>
+  </si>
+  <si>
+    <t>Solve  </t>
+  </si>
+  <si>
+    <t>Assume</t>
+  </si>
+  <si>
+    <t>Contribute</t>
+  </si>
+  <si>
+    <t>Participate</t>
+  </si>
+  <si>
+    <t>Exhibit</t>
+  </si>
+  <si>
+    <t>Show</t>
+  </si>
+  <si>
+    <t>Use</t>
+  </si>
+  <si>
+    <t>Justify</t>
   </si>
 </sst>
 </file>
@@ -826,6 +1116,33 @@
     <tableColumn id="4" xr3:uid="{ED8C1B86-7E5C-477D-9A5D-D3775615F5FE}" name="4"/>
     <tableColumn id="5" xr3:uid="{F3D188D7-7A83-4E46-8413-2D6E76310179}" name="5"/>
     <tableColumn id="6" xr3:uid="{3D3CD07F-3BE8-425B-B212-790F012715AE}" name="6"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{5C1E7AA2-4B8F-4D24-B0B3-1BA98FBE26DC}" name="Table2" displayName="Table2" ref="A1:F17" totalsRowShown="0">
+  <tableColumns count="6">
+    <tableColumn id="1" xr3:uid="{1F0C4DD6-BD66-4862-9572-8A875C971B97}" name="1"/>
+    <tableColumn id="2" xr3:uid="{1CC8102D-C21C-4819-920A-088B7A87943E}" name="2"/>
+    <tableColumn id="3" xr3:uid="{1D159070-1394-4F9E-AEE7-E1376C7F8726}" name="3"/>
+    <tableColumn id="4" xr3:uid="{DC52D1C2-4BBF-49B6-BB7F-C1C398BC698F}" name="4"/>
+    <tableColumn id="5" xr3:uid="{1A2EF47E-23C7-41E4-85D3-980BEBDF2F28}" name="5"/>
+    <tableColumn id="6" xr3:uid="{7164DAB2-B461-466C-891C-E3F9D0E5B7E1}" name="6"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{9F71E991-1303-493F-8018-D6A7648E2430}" name="Table3" displayName="Table3" ref="A1:E31" totalsRowShown="0">
+  <tableColumns count="5">
+    <tableColumn id="1" xr3:uid="{303B7691-C29B-47A4-A2AB-2F1003653B6E}" name="1"/>
+    <tableColumn id="2" xr3:uid="{814D75BC-2BF1-4B65-8291-FAA0F82CBCAE}" name="2"/>
+    <tableColumn id="3" xr3:uid="{AA6A08B2-99C1-4D9F-9513-CB38E0814891}" name="3"/>
+    <tableColumn id="4" xr3:uid="{48E2A704-7C9E-4E2C-A71F-4B4DC0FA4E01}" name="4"/>
+    <tableColumn id="5" xr3:uid="{E2C5A5BD-BB81-47C7-A30A-5A6292695362}" name="5"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -2126,4 +2443,758 @@
     <tablePart r:id="rId2"/>
   </tableParts>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B7825647-76B2-4305-A6D2-F3FA69DE1C27}">
+  <dimension ref="A1:F17"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D11" sqref="D11"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="6" max="6" width="14.44140625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>240</v>
+      </c>
+      <c r="B1" t="s">
+        <v>241</v>
+      </c>
+      <c r="C1" t="s">
+        <v>242</v>
+      </c>
+      <c r="D1" t="s">
+        <v>243</v>
+      </c>
+      <c r="E1" t="s">
+        <v>244</v>
+      </c>
+      <c r="F1" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>136</v>
+      </c>
+      <c r="B2" t="s">
+        <v>250</v>
+      </c>
+      <c r="C2" t="s">
+        <v>77</v>
+      </c>
+      <c r="D2" t="s">
+        <v>77</v>
+      </c>
+      <c r="E2" t="s">
+        <v>165</v>
+      </c>
+      <c r="F2" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>138</v>
+      </c>
+      <c r="B3" t="s">
+        <v>76</v>
+      </c>
+      <c r="C3" t="s">
+        <v>261</v>
+      </c>
+      <c r="D3" t="s">
+        <v>272</v>
+      </c>
+      <c r="E3" t="s">
+        <v>276</v>
+      </c>
+      <c r="F3" t="s">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>246</v>
+      </c>
+      <c r="B4" t="s">
+        <v>251</v>
+      </c>
+      <c r="C4" t="s">
+        <v>174</v>
+      </c>
+      <c r="D4" t="s">
+        <v>174</v>
+      </c>
+      <c r="E4" t="s">
+        <v>277</v>
+      </c>
+      <c r="F4" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>139</v>
+      </c>
+      <c r="B5" t="s">
+        <v>252</v>
+      </c>
+      <c r="C5" t="s">
+        <v>262</v>
+      </c>
+      <c r="D5" t="s">
+        <v>227</v>
+      </c>
+      <c r="E5" t="s">
+        <v>278</v>
+      </c>
+      <c r="F5" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
+        <v>48</v>
+      </c>
+      <c r="B6" t="s">
+        <v>253</v>
+      </c>
+      <c r="C6" t="s">
+        <v>263</v>
+      </c>
+      <c r="D6" t="s">
+        <v>273</v>
+      </c>
+      <c r="E6" t="s">
+        <v>96</v>
+      </c>
+      <c r="F6" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
+        <v>247</v>
+      </c>
+      <c r="B7" t="s">
+        <v>254</v>
+      </c>
+      <c r="C7" t="s">
+        <v>264</v>
+      </c>
+      <c r="D7" t="s">
+        <v>267</v>
+      </c>
+      <c r="E7" t="s">
+        <v>105</v>
+      </c>
+      <c r="F7" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
+        <v>248</v>
+      </c>
+      <c r="B8" t="s">
+        <v>255</v>
+      </c>
+      <c r="C8" t="s">
+        <v>104</v>
+      </c>
+      <c r="D8" t="s">
+        <v>268</v>
+      </c>
+      <c r="E8" t="s">
+        <v>279</v>
+      </c>
+      <c r="F8" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A9" t="s">
+        <v>15</v>
+      </c>
+      <c r="B9" t="s">
+        <v>26</v>
+      </c>
+      <c r="C9" t="s">
+        <v>227</v>
+      </c>
+      <c r="D9" t="s">
+        <v>274</v>
+      </c>
+      <c r="E9" t="s">
+        <v>209</v>
+      </c>
+      <c r="F9" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A10" t="s">
+        <v>25</v>
+      </c>
+      <c r="B10" t="s">
+        <v>256</v>
+      </c>
+      <c r="C10" t="s">
+        <v>265</v>
+      </c>
+      <c r="D10" t="s">
+        <v>275</v>
+      </c>
+      <c r="E10" t="s">
+        <v>71</v>
+      </c>
+      <c r="F10" t="s">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A11" t="s">
+        <v>249</v>
+      </c>
+      <c r="B11" t="s">
+        <v>28</v>
+      </c>
+      <c r="C11" t="s">
+        <v>266</v>
+      </c>
+      <c r="E11" t="s">
+        <v>280</v>
+      </c>
+      <c r="F11" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="B12" t="s">
+        <v>257</v>
+      </c>
+      <c r="C12" t="s">
+        <v>267</v>
+      </c>
+      <c r="F12" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="B13" t="s">
+        <v>258</v>
+      </c>
+      <c r="C13" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="B14" t="s">
+        <v>259</v>
+      </c>
+      <c r="C14" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="B15" t="s">
+        <v>260</v>
+      </c>
+      <c r="C15" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="B16" t="s">
+        <v>33</v>
+      </c>
+      <c r="C16" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="17" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C17" t="s">
+        <v>211</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+  <tableParts count="1">
+    <tablePart r:id="rId2"/>
+  </tableParts>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{40BC329C-C15A-4600-BCDC-E64F54B211F5}">
+  <dimension ref="A1:E31"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="12.21875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="17.33203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="19" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12.88671875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="15.33203125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>240</v>
+      </c>
+      <c r="B1" t="s">
+        <v>241</v>
+      </c>
+      <c r="C1" t="s">
+        <v>242</v>
+      </c>
+      <c r="D1" t="s">
+        <v>243</v>
+      </c>
+      <c r="E1" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>284</v>
+      </c>
+      <c r="B2" t="s">
+        <v>298</v>
+      </c>
+      <c r="C2" t="s">
+        <v>313</v>
+      </c>
+      <c r="D2" t="s">
+        <v>322</v>
+      </c>
+      <c r="E2" t="s">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>285</v>
+      </c>
+      <c r="B3" t="s">
+        <v>299</v>
+      </c>
+      <c r="C3" t="s">
+        <v>335</v>
+      </c>
+      <c r="D3" t="s">
+        <v>313</v>
+      </c>
+      <c r="E3" t="s">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>286</v>
+      </c>
+      <c r="B4" t="s">
+        <v>300</v>
+      </c>
+      <c r="C4" t="s">
+        <v>288</v>
+      </c>
+      <c r="D4" t="s">
+        <v>277</v>
+      </c>
+      <c r="E4" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>287</v>
+      </c>
+      <c r="B5" t="s">
+        <v>301</v>
+      </c>
+      <c r="C5" t="s">
+        <v>314</v>
+      </c>
+      <c r="D5" t="s">
+        <v>166</v>
+      </c>
+      <c r="E5" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
+        <v>288</v>
+      </c>
+      <c r="B6" t="s">
+        <v>302</v>
+      </c>
+      <c r="C6" t="s">
+        <v>86</v>
+      </c>
+      <c r="D6" t="s">
+        <v>323</v>
+      </c>
+      <c r="E6" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
+        <v>4</v>
+      </c>
+      <c r="B7" t="s">
+        <v>303</v>
+      </c>
+      <c r="C7" t="s">
+        <v>315</v>
+      </c>
+      <c r="D7" t="s">
+        <v>41</v>
+      </c>
+      <c r="E7" t="s">
+        <v>329</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
+        <v>253</v>
+      </c>
+      <c r="B8" t="s">
+        <v>304</v>
+      </c>
+      <c r="C8" t="s">
+        <v>138</v>
+      </c>
+      <c r="D8" t="s">
+        <v>324</v>
+      </c>
+      <c r="E8" t="s">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A9" t="s">
+        <v>289</v>
+      </c>
+      <c r="B9" t="s">
+        <v>305</v>
+      </c>
+      <c r="C9" t="s">
+        <v>338</v>
+      </c>
+      <c r="D9" t="s">
+        <v>127</v>
+      </c>
+      <c r="E9" t="s">
+        <v>341</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A10" t="s">
+        <v>290</v>
+      </c>
+      <c r="B10" t="s">
+        <v>306</v>
+      </c>
+      <c r="C10" t="s">
+        <v>50</v>
+      </c>
+      <c r="D10" t="s">
+        <v>81</v>
+      </c>
+      <c r="E10" t="s">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A11" t="s">
+        <v>7</v>
+      </c>
+      <c r="B11" t="s">
+        <v>336</v>
+      </c>
+      <c r="C11" t="s">
+        <v>51</v>
+      </c>
+      <c r="D11" t="s">
+        <v>325</v>
+      </c>
+      <c r="E11" t="s">
+        <v>331</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A12" t="s">
+        <v>291</v>
+      </c>
+      <c r="B12" t="s">
+        <v>307</v>
+      </c>
+      <c r="C12" t="s">
+        <v>253</v>
+      </c>
+      <c r="D12" t="s">
+        <v>326</v>
+      </c>
+      <c r="E12" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A13" t="s">
+        <v>12</v>
+      </c>
+      <c r="B13" t="s">
+        <v>47</v>
+      </c>
+      <c r="C13" t="s">
+        <v>316</v>
+      </c>
+      <c r="D13" t="s">
+        <v>50</v>
+      </c>
+      <c r="E13" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A14" t="s">
+        <v>292</v>
+      </c>
+      <c r="B14" t="s">
+        <v>253</v>
+      </c>
+      <c r="C14" t="s">
+        <v>281</v>
+      </c>
+      <c r="D14" t="s">
+        <v>96</v>
+      </c>
+      <c r="E14" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A15" t="s">
+        <v>293</v>
+      </c>
+      <c r="B15" t="s">
+        <v>308</v>
+      </c>
+      <c r="C15" t="s">
+        <v>317</v>
+      </c>
+      <c r="D15" t="s">
+        <v>55</v>
+      </c>
+      <c r="E15" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A16" t="s">
+        <v>159</v>
+      </c>
+      <c r="B16" t="s">
+        <v>309</v>
+      </c>
+      <c r="C16" t="s">
+        <v>190</v>
+      </c>
+      <c r="D16" t="s">
+        <v>146</v>
+      </c>
+      <c r="E16" t="s">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A17" t="s">
+        <v>294</v>
+      </c>
+      <c r="B17" t="s">
+        <v>10</v>
+      </c>
+      <c r="C17" t="s">
+        <v>225</v>
+      </c>
+      <c r="D17" t="s">
+        <v>7</v>
+      </c>
+      <c r="E17" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A18" t="s">
+        <v>295</v>
+      </c>
+      <c r="B18" t="s">
+        <v>310</v>
+      </c>
+      <c r="C18" t="s">
+        <v>318</v>
+      </c>
+      <c r="D18" t="s">
+        <v>188</v>
+      </c>
+      <c r="E18" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A19" t="s">
+        <v>296</v>
+      </c>
+      <c r="B19" t="s">
+        <v>337</v>
+      </c>
+      <c r="C19" t="s">
+        <v>206</v>
+      </c>
+      <c r="D19" t="s">
+        <v>105</v>
+      </c>
+      <c r="E19" t="s">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A20" t="s">
+        <v>297</v>
+      </c>
+      <c r="B20" t="s">
+        <v>200</v>
+      </c>
+      <c r="C20" t="s">
+        <v>20</v>
+      </c>
+      <c r="D20" t="s">
+        <v>153</v>
+      </c>
+      <c r="E20" t="s">
+        <v>334</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="B21" t="s">
+        <v>111</v>
+      </c>
+      <c r="C21" t="s">
+        <v>27</v>
+      </c>
+      <c r="D21" t="s">
+        <v>107</v>
+      </c>
+      <c r="E21" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="B22" t="s">
+        <v>114</v>
+      </c>
+      <c r="C22" t="s">
+        <v>319</v>
+      </c>
+      <c r="D22" t="s">
+        <v>113</v>
+      </c>
+      <c r="E22" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="B23" t="s">
+        <v>20</v>
+      </c>
+      <c r="C23" t="s">
+        <v>159</v>
+      </c>
+      <c r="D23" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="B24" t="s">
+        <v>22</v>
+      </c>
+      <c r="C24" t="s">
+        <v>320</v>
+      </c>
+      <c r="D24" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="B25" t="s">
+        <v>27</v>
+      </c>
+      <c r="C25" t="s">
+        <v>339</v>
+      </c>
+      <c r="D25" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="B26" t="s">
+        <v>259</v>
+      </c>
+      <c r="C26" t="s">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="B27" t="s">
+        <v>159</v>
+      </c>
+      <c r="C27" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="B28" t="s">
+        <v>32</v>
+      </c>
+      <c r="C28" t="s">
+        <v>340</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="B29" t="s">
+        <v>311</v>
+      </c>
+      <c r="C29" t="s">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="B30" t="s">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="B31" t="s">
+        <v>211</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+  <tableParts count="1">
+    <tablePart r:id="rId2"/>
+  </tableParts>
+</worksheet>
 </file>